--- a/PhpProjectVenta/docs/5-september-2017/NormalizacionSistemaVentasActualizada.xlsx
+++ b/PhpProjectVenta/docs/5-september-2017/NormalizacionSistemaVentasActualizada.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="129">
   <si>
     <t>Personas</t>
   </si>
@@ -784,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J3" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -797,16 +797,16 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" customWidth="1"/>
-    <col min="20" max="20" width="20.85546875" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,11 +815,11 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -841,38 +841,38 @@
       <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L2" s="5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="O2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:19">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -894,38 +894,38 @@
       <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="4">
+      <c r="K3" s="4">
         <v>1</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="M3" s="4">
+        <v>207210905</v>
+      </c>
       <c r="N3" s="4">
-        <v>207210905</v>
+        <v>12345</v>
       </c>
       <c r="O3" s="4">
-        <v>12345</v>
-      </c>
-      <c r="P3" s="4">
         <v>23</v>
       </c>
+      <c r="P3" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="Q3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="4">
+      <c r="R3" s="4">
         <v>1244251234</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:19">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -947,38 +947,38 @@
       <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="4">
+      <c r="K4" s="4">
         <v>2</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="M4" s="4">
+        <v>109870234</v>
+      </c>
       <c r="N4" s="4">
-        <v>109870234</v>
+        <v>54321</v>
       </c>
       <c r="O4" s="4">
-        <v>54321</v>
-      </c>
-      <c r="P4" s="4">
         <v>23</v>
       </c>
+      <c r="P4" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="Q4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="4">
+      <c r="R4" s="4">
         <v>1265748392</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:19">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1000,38 +1000,38 @@
       <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="4">
+      <c r="K5" s="4">
         <v>3</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="M5" s="4">
+        <v>304560948</v>
+      </c>
       <c r="N5" s="4">
-        <v>304560948</v>
+        <v>123</v>
       </c>
       <c r="O5" s="4">
-        <v>123</v>
-      </c>
-      <c r="P5" s="4">
         <v>23</v>
       </c>
+      <c r="P5" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="Q5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="4">
+      <c r="R5" s="4">
         <v>1241454634</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:19">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:19">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1077,52 +1077,49 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:19">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="H10" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K10" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="L10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:19">
       <c r="A11" s="4" t="s">
         <v>59</v>
       </c>
@@ -1130,36 +1127,33 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="9">
+      <c r="G11" s="9">
         <v>0.03</v>
       </c>
-      <c r="I11" s="4">
+      <c r="H11" s="4">
         <v>50</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="4">
+      <c r="K11" s="4">
         <v>500000</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4">
+      <c r="O11" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:19">
       <c r="A12" s="4" t="s">
         <v>62</v>
       </c>
@@ -1167,57 +1161,54 @@
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="9">
+      <c r="G12" s="9">
         <v>0.05</v>
       </c>
-      <c r="I12" s="4">
+      <c r="H12" s="4">
         <v>70</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="4">
+      <c r="K12" s="4">
         <v>300000</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4">
+      <c r="O12" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="K13" s="4" t="s">
+    <row r="13" spans="1:19">
+      <c r="J13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="4">
+      <c r="K13" s="4">
         <v>250000</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4">
+      <c r="O13" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:19">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1227,15 +1218,15 @@
       <c r="C15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="P15" s="1" t="s">
+      <c r="K15" s="1"/>
+      <c r="O15" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:19">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1245,29 +1236,29 @@
       <c r="C16" s="4">
         <v>2000</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="P16" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="Q16" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S16" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:18">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1277,29 +1268,29 @@
       <c r="C17" s="4">
         <v>1000</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="K17" s="4">
+        <v>2019</v>
+      </c>
       <c r="L17" s="4">
-        <v>2019</v>
-      </c>
-      <c r="M17" s="4">
         <v>1</v>
       </c>
+      <c r="O17" s="4">
+        <v>1</v>
+      </c>
       <c r="P17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="4">
         <v>407776</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="S17" s="4">
+      <c r="R17" s="4">
         <v>2008</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:18">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -1309,29 +1300,29 @@
       <c r="C18" s="4">
         <v>1000</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="K18" s="4">
+        <v>2021</v>
+      </c>
       <c r="L18" s="4">
-        <v>2021</v>
-      </c>
-      <c r="M18" s="4">
         <v>2</v>
       </c>
+      <c r="O18" s="4">
+        <v>2</v>
+      </c>
       <c r="P18" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="4">
         <v>608734</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="Q18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="S18" s="4">
+      <c r="R18" s="4">
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:18">
       <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
@@ -1341,29 +1332,29 @@
       <c r="C19" s="4">
         <v>500</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K19" s="4">
+        <v>2025</v>
+      </c>
       <c r="L19" s="4">
-        <v>2025</v>
-      </c>
-      <c r="M19" s="4">
         <v>3</v>
       </c>
+      <c r="O19" s="4">
+        <v>3</v>
+      </c>
       <c r="P19" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="4">
         <v>490765</v>
       </c>
-      <c r="R19" s="4" t="s">
+      <c r="Q19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="S19" s="4">
+      <c r="R19" s="4">
         <v>2005</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
@@ -1371,15 +1362,15 @@
       <c r="D22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="3" t="s">
         <v>87</v>
       </c>
@@ -1395,27 +1386,27 @@
       <c r="F23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="K23" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="L23" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="4" t="s">
         <v>95</v>
       </c>
@@ -1432,27 +1423,27 @@
       <c r="F24" s="4">
         <v>2500</v>
       </c>
+      <c r="J24" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="K24" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L24" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="L24" s="4">
+        <v>9000</v>
+      </c>
       <c r="M24" s="4">
-        <v>9000</v>
-      </c>
-      <c r="N24" s="4">
         <v>1</v>
       </c>
-      <c r="P24" s="4">
+      <c r="O24" s="4">
         <v>1</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="P24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="4" t="s">
         <v>100</v>
       </c>
@@ -1469,27 +1460,27 @@
       <c r="F25" s="4">
         <v>4500</v>
       </c>
+      <c r="J25" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="K25" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L25" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="L25" s="4">
+        <v>500</v>
+      </c>
       <c r="M25" s="4">
-        <v>500</v>
-      </c>
-      <c r="N25" s="4">
         <v>1</v>
       </c>
-      <c r="P25" s="4">
+      <c r="O25" s="4">
         <v>2</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="P25" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="4" t="s">
         <v>105</v>
       </c>
@@ -1506,20 +1497,20 @@
       <c r="F26" s="4">
         <v>1700</v>
       </c>
+      <c r="J26" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="K26" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L26" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="L26" s="4">
+        <v>1700</v>
+      </c>
       <c r="M26" s="4">
-        <v>1700</v>
-      </c>
-      <c r="N26" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:18">
       <c r="A27" s="4" t="s">
         <v>105</v>
       </c>
@@ -1536,20 +1527,20 @@
       <c r="F27" s="4">
         <v>5000</v>
       </c>
+      <c r="J27" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="K27" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L27" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="L27" s="4">
+        <v>2000</v>
+      </c>
       <c r="M27" s="4">
-        <v>2000</v>
-      </c>
-      <c r="N27" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:18">
       <c r="A28" s="4" t="s">
         <v>109</v>
       </c>
@@ -1558,20 +1549,20 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
+      <c r="J28" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="K28" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="L28" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="L28" s="4">
+        <v>7000</v>
+      </c>
       <c r="M28" s="4">
-        <v>7000</v>
-      </c>
-      <c r="N28" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:18">
       <c r="A29" s="4" t="s">
         <v>109</v>
       </c>
@@ -1579,15 +1570,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:18">
       <c r="A32" s="3" t="s">
         <v>118</v>
       </c>
@@ -1607,18 +1598,18 @@
         <v>126</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="K32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>118</v>
       </c>
+      <c r="K32" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="L32" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M32" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="4" t="s">
         <v>120</v>
       </c>
@@ -1638,18 +1629,18 @@
         <v>6305</v>
       </c>
       <c r="G33" s="10"/>
+      <c r="J33" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="K33" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L33" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="M33" s="4">
+      <c r="L33" s="4">
         <v>1</v>
       </c>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="4" t="s">
         <v>121</v>
       </c>
@@ -1669,18 +1660,18 @@
         <v>3325</v>
       </c>
       <c r="G34" s="10"/>
+      <c r="J34" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="K34" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L34" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M34" s="4">
+      <c r="L34" s="4">
         <v>1</v>
       </c>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="4" t="s">
         <v>122</v>
       </c>
@@ -1700,18 +1691,18 @@
         <v>5795</v>
       </c>
       <c r="G35" s="10"/>
+      <c r="J35" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="K35" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L35" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M35" s="4">
+      <c r="L35" s="4">
         <v>3</v>
       </c>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="4" t="s">
         <v>123</v>
       </c>
@@ -1731,18 +1722,18 @@
         <v>5335</v>
       </c>
       <c r="G36" s="10"/>
+      <c r="J36" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="K36" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="M36" s="4">
+      <c r="L36" s="4">
         <v>1</v>
       </c>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="4" t="s">
         <v>124</v>
       </c>
@@ -1762,16 +1753,16 @@
         <v>5700</v>
       </c>
       <c r="G37" s="10"/>
+      <c r="J37" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="K37" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L37" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M37" s="4">
+      <c r="L37" s="4">
         <v>2</v>
       </c>
-      <c r="N37" s="4"/>
+      <c r="M37" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
